--- a/biology/Histoire de la zoologie et de la botanique/Gustav_Henrik_Andreas_Budde-Lund/Gustav_Henrik_Andreas_Budde-Lund.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gustav_Henrik_Andreas_Budde-Lund/Gustav_Henrik_Andreas_Budde-Lund.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gustav Henrik Andreas Budde-Lund (1846-1911) est un zoologiste danois. En 1868, il cofonde la société entomologiste Entomologisk Forening aux côtés de William Rasmus Schlick Traugott, Carl Août Møller, Andreas Haas et Ivar Frederik Christian Ammitzbøll. Il se marie en 1875. Il publie en 1885 Crustacés Isopodes terrestres. Les cloportes du genre Buddelundiella ont été nommés en son honneur par l'entomologiste Filippo Silvestri en 1897.
 </t>
